--- a/Parte A/Data/matrices_confusion.xlsx
+++ b/Parte A/Data/matrices_confusion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,14 +467,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -488,14 +488,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Random Forest</t>
+          <t>Logistic Regression</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -509,14 +509,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -530,17 +530,227 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>28</v>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Random Forest</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Real No</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>68</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>K-Nearest Neighbors</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Real Yes</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>42</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>K-Nearest Neighbors</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Real No</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>54</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SVM</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Real Yes</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>25</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C9" t="n">
         <v>54</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Real No</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>72</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Real Yes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>55</v>
+      </c>
+      <c r="C11" t="n">
+        <v>24</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Real No</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>65</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Real Yes</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>51</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Naive Bayes</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Real No</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>53</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Real Yes</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>54</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>10</v>
       </c>
     </row>

--- a/Parte A/Data/matrices_confusion.xlsx
+++ b/Parte A/Data/matrices_confusion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,14 +467,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Logistic Regression</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -488,269 +488,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Logistic Regression</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Real No</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>47</v>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Real Yes</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>28</v>
-      </c>
-      <c r="C5" t="n">
-        <v>51</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Real No</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>68</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>K-Nearest Neighbors</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Real Yes</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>42</v>
-      </c>
-      <c r="C7" t="n">
-        <v>37</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>K-Nearest Neighbors</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Real No</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>54</v>
-      </c>
-      <c r="C8" t="n">
-        <v>23</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Real Yes</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>25</v>
-      </c>
-      <c r="C9" t="n">
-        <v>54</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>SVM</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Real No</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>72</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Decision Tree</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Real Yes</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>55</v>
-      </c>
-      <c r="C11" t="n">
-        <v>24</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Decision Tree</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Real No</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>65</v>
-      </c>
-      <c r="C12" t="n">
-        <v>12</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Naive Bayes</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Real Yes</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>28</v>
-      </c>
-      <c r="C13" t="n">
-        <v>51</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Naive Bayes</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Real No</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>53</v>
-      </c>
-      <c r="C14" t="n">
-        <v>24</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Real Yes</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>25</v>
-      </c>
-      <c r="C15" t="n">
-        <v>54</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
         <v>10</v>
       </c>
     </row>
